--- a/Code/Results/Cases/Case_4_75/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_75/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.49367278745956</v>
+        <v>9.828084232555808</v>
       </c>
       <c r="C2">
-        <v>6.743137880626808</v>
+        <v>4.631832391164917</v>
       </c>
       <c r="D2">
-        <v>10.99160822400926</v>
+        <v>14.8832573780194</v>
       </c>
       <c r="E2">
-        <v>11.13431163974617</v>
+        <v>16.26228367436907</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>27.84328344389975</v>
+        <v>38.17157358099266</v>
       </c>
       <c r="H2">
-        <v>10.41041777223322</v>
+        <v>16.7364713804265</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.509463925387675</v>
+        <v>9.465869602604881</v>
       </c>
       <c r="K2">
-        <v>11.07754789271069</v>
+        <v>9.179785395928274</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11.74847173149386</v>
+        <v>16.06445695289349</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.54716793273595</v>
+        <v>26.71244451377827</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.68871836350839</v>
+        <v>9.57701626589658</v>
       </c>
       <c r="C3">
-        <v>6.483177441358889</v>
+        <v>4.501380056928865</v>
       </c>
       <c r="D3">
-        <v>10.64751889421837</v>
+        <v>14.85805667283165</v>
       </c>
       <c r="E3">
-        <v>10.89564627662591</v>
+        <v>16.2633032609611</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>27.64813567598279</v>
+        <v>38.2671052148101</v>
       </c>
       <c r="H3">
-        <v>10.48043319281977</v>
+        <v>16.786805880836</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.52450914243934</v>
+        <v>9.48440005652667</v>
       </c>
       <c r="K3">
-        <v>10.47185364888892</v>
+        <v>9.012101957923397</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.26430311823615</v>
+        <v>16.00503280277584</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.58964459872537</v>
+        <v>26.79479281232389</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.16598337752137</v>
+        <v>9.421110697171155</v>
       </c>
       <c r="C4">
-        <v>6.318024594441257</v>
+        <v>4.418745397307377</v>
       </c>
       <c r="D4">
-        <v>10.43721870406766</v>
+        <v>14.84556422182238</v>
       </c>
       <c r="E4">
-        <v>10.75322948362748</v>
+        <v>16.26691877207267</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>27.55554473158776</v>
+        <v>38.3356770413121</v>
       </c>
       <c r="H4">
-        <v>10.52934615663323</v>
+        <v>16.82017123135026</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.53574172949526</v>
+        <v>9.49672383132679</v>
       </c>
       <c r="K4">
-        <v>10.08136060357576</v>
+        <v>8.908844442835157</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>10.96100253522135</v>
+        <v>15.97097382491599</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.62905732919979</v>
+        <v>26.85039077848597</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.94578441009518</v>
+        <v>9.357234676550924</v>
       </c>
       <c r="C5">
-        <v>6.249391688051309</v>
+        <v>4.384467034656044</v>
       </c>
       <c r="D5">
-        <v>10.35188466201951</v>
+        <v>14.8412271872126</v>
       </c>
       <c r="E5">
-        <v>10.69628481986092</v>
+        <v>16.26914497325771</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>27.52444753996701</v>
+        <v>38.36610604380594</v>
       </c>
       <c r="H5">
-        <v>10.55071973347533</v>
+        <v>16.83438648085941</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.540810849825432</v>
+        <v>9.501984082269509</v>
       </c>
       <c r="K5">
-        <v>9.91761793807307</v>
+        <v>8.866744886655404</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>10.83606817899973</v>
+        <v>15.9577149984069</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.64834381203948</v>
+        <v>26.87431197372583</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.90878652896243</v>
+        <v>9.346610293214017</v>
       </c>
       <c r="C6">
-        <v>6.237916736855688</v>
+        <v>4.378739693570344</v>
       </c>
       <c r="D6">
-        <v>10.33774068997672</v>
+        <v>14.84055266032366</v>
       </c>
       <c r="E6">
-        <v>10.68689666089095</v>
+        <v>16.26956012904296</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>27.5196780603046</v>
+        <v>38.37130863016466</v>
       </c>
       <c r="H6">
-        <v>10.55435447221356</v>
+        <v>16.83678427614432</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.54168199140468</v>
+        <v>9.502871940141615</v>
       </c>
       <c r="K6">
-        <v>9.890152105941842</v>
+        <v>8.859754598810454</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>10.81524775481602</v>
+        <v>15.95555113630626</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.65173745065052</v>
+        <v>26.878360395708</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.16304278649628</v>
+        <v>9.420250501596838</v>
       </c>
       <c r="C7">
-        <v>6.317104293577071</v>
+        <v>4.418285506601811</v>
       </c>
       <c r="D7">
-        <v>10.4360662178479</v>
+        <v>14.84550267411315</v>
       </c>
       <c r="E7">
-        <v>10.75245701898224</v>
+        <v>16.26694574589104</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>27.55509877393323</v>
+        <v>38.33607736487404</v>
       </c>
       <c r="H7">
-        <v>10.52962863516729</v>
+        <v>16.82036043840991</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.535808115140723</v>
+        <v>9.496793807955886</v>
       </c>
       <c r="K7">
-        <v>10.07917089812555</v>
+        <v>8.908276687620431</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>10.95932279091932</v>
+        <v>15.97079248666909</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.62930454004977</v>
+        <v>26.85070827021404</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.22202571472674</v>
+        <v>9.741935385276221</v>
       </c>
       <c r="C8">
-        <v>6.654686151343402</v>
+        <v>4.58739824828707</v>
       </c>
       <c r="D8">
-        <v>10.87283481561598</v>
+        <v>14.8739521696467</v>
       </c>
       <c r="E8">
-        <v>11.05119665367332</v>
+        <v>16.26201552626413</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>27.77022142320785</v>
+        <v>38.20245053227692</v>
       </c>
       <c r="H8">
-        <v>10.43329997357283</v>
+        <v>16.75331623634333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.514231484758294</v>
+        <v>9.472062761238714</v>
       </c>
       <c r="K8">
-        <v>10.87259579256132</v>
+        <v>9.12206227406878</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.58287907878154</v>
+        <v>16.04346983766725</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.5589699963647</v>
+        <v>26.73979202022405</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.07369699119439</v>
+        <v>10.35489539329951</v>
       </c>
       <c r="C9">
-        <v>7.270525924834466</v>
+        <v>4.897559376525868</v>
       </c>
       <c r="D9">
-        <v>11.73212626997357</v>
+        <v>14.95318536312966</v>
       </c>
       <c r="E9">
-        <v>11.66734149932792</v>
+        <v>16.27600641920017</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>28.41683438650219</v>
+        <v>38.01940177376478</v>
       </c>
       <c r="H9">
-        <v>10.29368095235291</v>
+        <v>16.64135663601938</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.48820550384468</v>
+        <v>9.431056576168222</v>
       </c>
       <c r="K9">
-        <v>12.27906002176475</v>
+        <v>9.536613684032323</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>12.75123393608533</v>
+        <v>16.20478552183949</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.53257948116106</v>
+        <v>26.56231692175768</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.29880904680228</v>
+        <v>10.78939629265125</v>
       </c>
       <c r="C10">
-        <v>7.692405336469404</v>
+        <v>5.11073761526495</v>
       </c>
       <c r="D10">
-        <v>12.35920481235665</v>
+        <v>15.02537525006397</v>
       </c>
       <c r="E10">
-        <v>12.1353469142222</v>
+        <v>16.30060907667511</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>29.03958276225862</v>
+        <v>37.93347231809921</v>
       </c>
       <c r="H10">
-        <v>10.22446805271091</v>
+        <v>16.57099150159504</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.47966928176924</v>
+        <v>9.40547616107604</v>
       </c>
       <c r="K10">
-        <v>13.21971755029121</v>
+        <v>9.835354722312212</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13.56896252926952</v>
+        <v>16.33409982536489</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.58914370659855</v>
+        <v>26.45642926270238</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.82724634679817</v>
+        <v>10.98269227467667</v>
       </c>
       <c r="C11">
-        <v>7.877314954363747</v>
+        <v>5.204237648052987</v>
       </c>
       <c r="D11">
-        <v>12.6425066220484</v>
+        <v>15.06117224995751</v>
       </c>
       <c r="E11">
-        <v>12.35095814366005</v>
+        <v>16.31488347588565</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>29.35688091133478</v>
+        <v>37.90499482944883</v>
       </c>
       <c r="H11">
-        <v>10.20100004345219</v>
+        <v>16.54156182659083</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.478234484545652</v>
+        <v>9.394821995250428</v>
       </c>
       <c r="K11">
-        <v>13.6274191545964</v>
+        <v>9.969403332459621</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13.93094973272029</v>
+        <v>16.39511988930943</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.63309062242667</v>
+        <v>26.41359873924459</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.02324312675259</v>
+        <v>11.05519202204984</v>
       </c>
       <c r="C12">
-        <v>7.946304795967732</v>
+        <v>5.239122922194621</v>
       </c>
       <c r="D12">
-        <v>12.74943086995202</v>
+        <v>15.07514530538662</v>
       </c>
       <c r="E12">
-        <v>12.43294723661888</v>
+        <v>16.32072906765034</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>29.48205774686417</v>
+        <v>37.89574159588679</v>
       </c>
       <c r="H12">
-        <v>10.19333427972925</v>
+        <v>16.53078851919293</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.478056246747824</v>
+        <v>9.390928483067766</v>
       </c>
       <c r="K12">
-        <v>13.77890112940249</v>
+        <v>10.01985187825481</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.06651070318771</v>
+        <v>16.41852846358958</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.65249320009483</v>
+        <v>26.39814910724809</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.981213864244</v>
+        <v>11.03960996833011</v>
       </c>
       <c r="C13">
-        <v>7.931492795198714</v>
+        <v>5.231633248887355</v>
       </c>
       <c r="D13">
-        <v>12.72641971322025</v>
+        <v>15.07211751858891</v>
       </c>
       <c r="E13">
-        <v>12.41527493348654</v>
+        <v>16.31945059022981</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>29.45487331879556</v>
+        <v>37.89766630941722</v>
       </c>
       <c r="H13">
-        <v>10.19492981081446</v>
+        <v>16.53309223855893</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.478078182693729</v>
+        <v>9.391760754717431</v>
       </c>
       <c r="K13">
-        <v>13.7464059289638</v>
+        <v>10.00900150737789</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.03738369892631</v>
+        <v>16.4134738211456</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.64818946813845</v>
+        <v>26.40144221822106</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.84345326404509</v>
+        <v>10.98867122708968</v>
       </c>
       <c r="C14">
-        <v>7.883011579116617</v>
+        <v>5.207118239609828</v>
       </c>
       <c r="D14">
-        <v>12.65131086349925</v>
+        <v>15.06231350058403</v>
       </c>
       <c r="E14">
-        <v>12.35769684479278</v>
+        <v>16.31535559312983</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>29.36707790906163</v>
+        <v>37.90420286240891</v>
       </c>
       <c r="H14">
-        <v>10.20034450214744</v>
+        <v>16.54066806269232</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.478212427314571</v>
+        <v>9.394498849705611</v>
       </c>
       <c r="K14">
-        <v>13.63993987636957</v>
+        <v>9.973560291117591</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13.94213317967942</v>
+        <v>16.39703976369206</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.63463074315858</v>
+        <v>26.41231226015646</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.75853681841484</v>
+        <v>10.95737699459516</v>
       </c>
       <c r="C15">
-        <v>7.853180495621833</v>
+        <v>5.192033623345147</v>
       </c>
       <c r="D15">
-        <v>12.60525615494742</v>
+        <v>15.05636238849084</v>
       </c>
       <c r="E15">
-        <v>12.32247176448812</v>
+        <v>16.31290451706925</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>29.31395850995487</v>
+        <v>37.90840613591789</v>
       </c>
       <c r="H15">
-        <v>10.2038222557625</v>
+        <v>16.54535680125184</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.478342597331414</v>
+        <v>9.396194364204133</v>
       </c>
       <c r="K15">
-        <v>13.57434806036159</v>
+        <v>9.951809450724996</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.88359006832478</v>
+        <v>16.38701228498202</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.62668937102806</v>
+        <v>26.41907071710398</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.26369685871059</v>
+        <v>10.77667006076955</v>
       </c>
       <c r="C16">
-        <v>7.680177905859743</v>
+        <v>5.10455534982338</v>
       </c>
       <c r="D16">
-        <v>12.34064433766986</v>
+        <v>15.02309469183456</v>
       </c>
       <c r="E16">
-        <v>12.12130656636961</v>
+        <v>16.29973798452823</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>29.01954257316547</v>
+        <v>37.93554734256109</v>
       </c>
       <c r="H16">
-        <v>10.22616882382505</v>
+        <v>16.57296672062359</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.479813416529254</v>
+        <v>9.406192181207226</v>
       </c>
       <c r="K16">
-        <v>13.19266648788506</v>
+        <v>9.826553049937067</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.54509755961516</v>
+        <v>16.33015499466519</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.58665031018309</v>
+        <v>26.45933590729958</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.95276169898014</v>
+        <v>10.66464348828775</v>
       </c>
       <c r="C17">
-        <v>7.572233236243144</v>
+        <v>5.049984113218504</v>
       </c>
       <c r="D17">
-        <v>12.17775527233271</v>
+        <v>15.00343815974329</v>
       </c>
       <c r="E17">
-        <v>11.99855724956918</v>
+        <v>16.29244817609629</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>28.84773711384031</v>
+        <v>37.95491914951468</v>
       </c>
       <c r="H17">
-        <v>10.24197860900093</v>
+        <v>16.59056532852622</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.481351889079006</v>
+        <v>9.41257695082315</v>
       </c>
       <c r="K17">
-        <v>12.95333903406224</v>
+        <v>9.749204399501622</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.33482136969701</v>
+        <v>16.2958271341541</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.56685374973167</v>
+        <v>26.48540581563761</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.7711997628696</v>
+        <v>10.599802132017</v>
       </c>
       <c r="C18">
-        <v>7.509487991978553</v>
+        <v>5.018270147517337</v>
       </c>
       <c r="D18">
-        <v>12.08388508877539</v>
+        <v>14.9924111128936</v>
       </c>
       <c r="E18">
-        <v>11.92821309198563</v>
+        <v>16.28854561989221</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>28.75211310609579</v>
+        <v>37.96705995724881</v>
       </c>
       <c r="H18">
-        <v>10.25182232262874</v>
+        <v>16.60093039708184</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.482466418837724</v>
+        <v>9.416341795912276</v>
       </c>
       <c r="K18">
-        <v>12.81378158677562</v>
+        <v>9.704543989159008</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.2129382223008</v>
+        <v>16.27629006238955</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.55717336153824</v>
+        <v>26.50090290690388</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.70925761346463</v>
+        <v>10.57778036033851</v>
       </c>
       <c r="C19">
-        <v>7.488131288259134</v>
+        <v>5.007477034589006</v>
       </c>
       <c r="D19">
-        <v>12.05207367122044</v>
+        <v>14.98872566833512</v>
       </c>
       <c r="E19">
-        <v>11.90444163265533</v>
+        <v>16.28727423702821</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>28.72028073367494</v>
+        <v>37.9713419940185</v>
       </c>
       <c r="H19">
-        <v>10.25528208349401</v>
+        <v>16.60448153172074</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.482882833019958</v>
+        <v>9.417632402664736</v>
       </c>
       <c r="K19">
-        <v>12.76620317709716</v>
+        <v>9.689394748594919</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.17151223576329</v>
+        <v>16.26971118520402</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.55418445623455</v>
+        <v>26.50623618438334</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.98614252810068</v>
+        <v>10.67661152085009</v>
       </c>
       <c r="C20">
-        <v>7.583792456859475</v>
+        <v>5.055827219547464</v>
       </c>
       <c r="D20">
-        <v>12.19511436751302</v>
+        <v>15.00550182364355</v>
       </c>
       <c r="E20">
-        <v>12.01159778733719</v>
+        <v>16.29319415980189</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>28.86569452820581</v>
+        <v>37.95275359470667</v>
       </c>
       <c r="H20">
-        <v>10.24021748931999</v>
+        <v>16.58866679549361</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.481164256579853</v>
+        <v>9.411887710477519</v>
       </c>
       <c r="K20">
-        <v>12.97901278769024</v>
+        <v>9.757456392626471</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.35730330523471</v>
+        <v>16.2994600273924</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.56878353068632</v>
+        <v>26.48257862328187</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.88402812022936</v>
+        <v>11.00365262285501</v>
       </c>
       <c r="C21">
-        <v>7.897279843713149</v>
+        <v>5.214333195133309</v>
       </c>
       <c r="D21">
-        <v>12.67338234984196</v>
+        <v>15.06518191188567</v>
       </c>
       <c r="E21">
-        <v>12.37460000951262</v>
+        <v>16.31654647278782</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>29.39272824211364</v>
+        <v>37.90224134706403</v>
       </c>
       <c r="H21">
-        <v>10.19872037685246</v>
+        <v>16.53843278790833</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.478162981460287</v>
+        <v>9.393690780765249</v>
       </c>
       <c r="K21">
-        <v>13.67129036028699</v>
+        <v>9.983979082956433</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>13.97015224060862</v>
+        <v>16.40185877266012</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.63853721443242</v>
+        <v>26.40909857199209</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.4469076821021</v>
+        <v>11.21330044813841</v>
       </c>
       <c r="C22">
-        <v>8.096142793401146</v>
+        <v>5.314879955152458</v>
       </c>
       <c r="D22">
-        <v>12.98385678877783</v>
+        <v>15.10661587564984</v>
       </c>
       <c r="E22">
-        <v>12.6138164872144</v>
+        <v>16.33437262625364</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>29.76650447298029</v>
+        <v>37.87815152253471</v>
       </c>
       <c r="H22">
-        <v>10.178750918569</v>
+        <v>16.50776489701824</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.478335946129299</v>
+        <v>9.382619691476865</v>
       </c>
       <c r="K22">
-        <v>14.10680189230557</v>
+        <v>10.13018195274255</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.36182476219815</v>
+        <v>16.47053346578414</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.70028300899343</v>
+        <v>26.36556024434429</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.14866450010543</v>
+        <v>11.10180356234872</v>
       </c>
       <c r="C23">
-        <v>7.990563165021953</v>
+        <v>5.261501447989598</v>
       </c>
       <c r="D23">
-        <v>12.81836456449815</v>
+        <v>15.08428218930584</v>
       </c>
       <c r="E23">
-        <v>12.48597622015692</v>
+        <v>16.32462496846977</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>29.56428919995465</v>
+        <v>37.89019099573466</v>
       </c>
       <c r="H23">
-        <v>10.18873125395052</v>
+        <v>16.52393498514058</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.478043876873421</v>
+        <v>9.388453455523511</v>
       </c>
       <c r="K23">
-        <v>13.87590850779129</v>
+        <v>10.05233410823497</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.15361393830517</v>
+        <v>16.43372497155046</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.6658029955175</v>
+        <v>26.38838653697459</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.97105978333175</v>
+        <v>10.67120212531216</v>
       </c>
       <c r="C24">
-        <v>7.57856866936414</v>
+        <v>5.053186609307959</v>
       </c>
       <c r="D24">
-        <v>12.18726700968899</v>
+        <v>15.00456798790021</v>
       </c>
       <c r="E24">
-        <v>12.00570145235248</v>
+        <v>16.29285600184713</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>28.85756618220906</v>
+        <v>37.95372951590655</v>
       </c>
       <c r="H24">
-        <v>10.24101134668285</v>
+        <v>16.58952435165146</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.481248369683192</v>
+        <v>9.412199022726542</v>
       </c>
       <c r="K24">
-        <v>12.96741180384491</v>
+        <v>9.753726259873318</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.34714230773718</v>
+        <v>16.29781697708423</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.56790578945406</v>
+        <v>26.48385521107129</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.59668348569</v>
+        <v>10.19151956505997</v>
       </c>
       <c r="C25">
-        <v>7.109145918289982</v>
+        <v>4.816127214969923</v>
       </c>
       <c r="D25">
-        <v>11.50001724228737</v>
+        <v>14.92927100499099</v>
       </c>
       <c r="E25">
-        <v>11.49774413735247</v>
+        <v>16.26969755680049</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>28.21667895712413</v>
+        <v>38.06042032149776</v>
       </c>
       <c r="H25">
-        <v>10.32584350930868</v>
+        <v>16.66955605856261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.4934364474333</v>
+        <v>9.441349909839463</v>
       </c>
       <c r="K25">
-        <v>11.91478005226672</v>
+        <v>9.425282384814674</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.4418388233432</v>
+        <v>16.1591992800226</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.52696030280901</v>
+        <v>26.6060324741689</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_75/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_75/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.828084232555808</v>
+        <v>12.49367278745959</v>
       </c>
       <c r="C2">
-        <v>4.631832391164917</v>
+        <v>6.743137880626795</v>
       </c>
       <c r="D2">
-        <v>14.8832573780194</v>
+        <v>10.99160822400932</v>
       </c>
       <c r="E2">
-        <v>16.26228367436907</v>
+        <v>11.13431163974614</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>38.17157358099266</v>
+        <v>27.84328344389974</v>
       </c>
       <c r="H2">
-        <v>16.7364713804265</v>
+        <v>10.41041777223323</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.465869602604881</v>
+        <v>5.509463925387561</v>
       </c>
       <c r="K2">
-        <v>9.179785395928274</v>
+        <v>11.07754789271072</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.06445695289349</v>
+        <v>11.74847173149384</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.71244451377827</v>
+        <v>17.54716793273593</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.57701626589658</v>
+        <v>11.6887183635085</v>
       </c>
       <c r="C3">
-        <v>4.501380056928865</v>
+        <v>6.483177441358878</v>
       </c>
       <c r="D3">
-        <v>14.85805667283165</v>
+        <v>10.64751889421837</v>
       </c>
       <c r="E3">
-        <v>16.2633032609611</v>
+        <v>10.89564627662596</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>38.2671052148101</v>
+        <v>27.64813567598235</v>
       </c>
       <c r="H3">
-        <v>16.786805880836</v>
+        <v>10.4804331928197</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.48440005652667</v>
+        <v>5.5245091424394</v>
       </c>
       <c r="K3">
-        <v>9.012101957923397</v>
+        <v>10.471853648889</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.00503280277584</v>
+        <v>11.26430311823614</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.79479281232389</v>
+        <v>17.5896445987252</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.421110697171155</v>
+        <v>11.16598337752142</v>
       </c>
       <c r="C4">
-        <v>4.418745397307377</v>
+        <v>6.318024594441223</v>
       </c>
       <c r="D4">
-        <v>14.84556422182238</v>
+        <v>10.43721870406749</v>
       </c>
       <c r="E4">
-        <v>16.26691877207267</v>
+        <v>10.75322948362748</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>38.3356770413121</v>
+        <v>27.55554473158752</v>
       </c>
       <c r="H4">
-        <v>16.82017123135026</v>
+        <v>10.52934615663331</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.49672383132679</v>
+        <v>5.535741729495385</v>
       </c>
       <c r="K4">
-        <v>8.908844442835157</v>
+        <v>10.08136060357578</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.97097382491599</v>
+        <v>10.96100253522133</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.85039077848597</v>
+        <v>17.62905732919973</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.357234676550924</v>
+        <v>10.94578441009523</v>
       </c>
       <c r="C5">
-        <v>4.384467034656044</v>
+        <v>6.249391688051112</v>
       </c>
       <c r="D5">
-        <v>14.8412271872126</v>
+        <v>10.3518846620196</v>
       </c>
       <c r="E5">
-        <v>16.26914497325771</v>
+        <v>10.69628481986097</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>38.36610604380594</v>
+        <v>27.52444753996689</v>
       </c>
       <c r="H5">
-        <v>16.83438648085941</v>
+        <v>10.55071973347532</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.501984082269509</v>
+        <v>5.540810849825432</v>
       </c>
       <c r="K5">
-        <v>8.866744886655404</v>
+        <v>9.917617938073064</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.9577149984069</v>
+        <v>10.83606817899977</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.87431197372583</v>
+        <v>17.64834381203941</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.346610293214017</v>
+        <v>10.90878652896243</v>
       </c>
       <c r="C6">
-        <v>4.378739693570344</v>
+        <v>6.237916736855686</v>
       </c>
       <c r="D6">
-        <v>14.84055266032366</v>
+        <v>10.33774068997679</v>
       </c>
       <c r="E6">
-        <v>16.26956012904296</v>
+        <v>10.68689666089098</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>38.37130863016466</v>
+        <v>27.5196780603046</v>
       </c>
       <c r="H6">
-        <v>16.83678427614432</v>
+        <v>10.55435447221356</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.502871940141615</v>
+        <v>5.54168199140468</v>
       </c>
       <c r="K6">
-        <v>8.859754598810454</v>
+        <v>9.890152105941842</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.95555113630626</v>
+        <v>10.81524775481603</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.878360395708</v>
+        <v>17.65173745065052</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.420250501596838</v>
+        <v>11.16304278649636</v>
       </c>
       <c r="C7">
-        <v>4.418285506601811</v>
+        <v>6.317104293576866</v>
       </c>
       <c r="D7">
-        <v>14.84550267411315</v>
+        <v>10.43606621784786</v>
       </c>
       <c r="E7">
-        <v>16.26694574589104</v>
+        <v>10.75245701898215</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>38.33607736487404</v>
+        <v>27.555098773933</v>
       </c>
       <c r="H7">
-        <v>16.82036043840991</v>
+        <v>10.52962863516729</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.496793807955886</v>
+        <v>5.535808115140725</v>
       </c>
       <c r="K7">
-        <v>8.908276687620431</v>
+        <v>10.07917089812558</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.97079248666909</v>
+        <v>10.95932279091929</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.85070827021404</v>
+        <v>17.62930454004967</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.741935385276221</v>
+        <v>12.22202571472674</v>
       </c>
       <c r="C8">
-        <v>4.58739824828707</v>
+        <v>6.654686151343216</v>
       </c>
       <c r="D8">
-        <v>14.8739521696467</v>
+        <v>10.87283481561605</v>
       </c>
       <c r="E8">
-        <v>16.26201552626413</v>
+        <v>11.05119665367339</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>38.20245053227692</v>
+        <v>27.77022142320807</v>
       </c>
       <c r="H8">
-        <v>16.75331623634333</v>
+        <v>10.43329997357294</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.472062761238714</v>
+        <v>5.514231484758284</v>
       </c>
       <c r="K8">
-        <v>9.12206227406878</v>
+        <v>10.87259579256127</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.04346983766725</v>
+        <v>11.5828790787816</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.73979202022405</v>
+        <v>17.55896999636487</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.35489539329951</v>
+        <v>14.07369699119436</v>
       </c>
       <c r="C9">
-        <v>4.897559376525868</v>
+        <v>7.270525924834553</v>
       </c>
       <c r="D9">
-        <v>14.95318536312966</v>
+        <v>11.73212626997361</v>
       </c>
       <c r="E9">
-        <v>16.27600641920017</v>
+        <v>11.66734149932795</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>38.01940177376478</v>
+        <v>28.416834386502</v>
       </c>
       <c r="H9">
-        <v>16.64135663601938</v>
+        <v>10.29368095235281</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.431056576168222</v>
+        <v>5.488205503844709</v>
       </c>
       <c r="K9">
-        <v>9.536613684032323</v>
+        <v>12.27906002176475</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.20478552183949</v>
+        <v>12.75123393608533</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.56231692175768</v>
+        <v>17.53257948116092</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.78939629265125</v>
+        <v>15.29880904680228</v>
       </c>
       <c r="C10">
-        <v>5.11073761526495</v>
+        <v>7.692405336469404</v>
       </c>
       <c r="D10">
-        <v>15.02537525006397</v>
+        <v>12.35920481235661</v>
       </c>
       <c r="E10">
-        <v>16.30060907667511</v>
+        <v>12.13534691422218</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>37.93347231809921</v>
+        <v>29.03958276225865</v>
       </c>
       <c r="H10">
-        <v>16.57099150159504</v>
+        <v>10.22446805271084</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.40547616107604</v>
+        <v>5.479669281769278</v>
       </c>
       <c r="K10">
-        <v>9.835354722312212</v>
+        <v>13.21971755029122</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.33409982536489</v>
+        <v>13.56896252926951</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>26.45642926270238</v>
+        <v>17.58914370659853</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.98269227467667</v>
+        <v>15.82724634679818</v>
       </c>
       <c r="C11">
-        <v>5.204237648052987</v>
+        <v>7.877314954363681</v>
       </c>
       <c r="D11">
-        <v>15.06117224995751</v>
+        <v>12.64250662204837</v>
       </c>
       <c r="E11">
-        <v>16.31488347588565</v>
+        <v>12.35095814365998</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>37.90499482944883</v>
+        <v>29.35688091133454</v>
       </c>
       <c r="H11">
-        <v>16.54156182659083</v>
+        <v>10.20100004345219</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.394821995250428</v>
+        <v>5.47823448454565</v>
       </c>
       <c r="K11">
-        <v>9.969403332459621</v>
+        <v>13.62741915459636</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.39511988930943</v>
+        <v>13.93094973272027</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.41359873924459</v>
+        <v>17.6330906224266</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.05519202204984</v>
+        <v>16.02324312675261</v>
       </c>
       <c r="C12">
-        <v>5.239122922194621</v>
+        <v>7.946304795967704</v>
       </c>
       <c r="D12">
-        <v>15.07514530538662</v>
+        <v>12.74943086995196</v>
       </c>
       <c r="E12">
-        <v>16.32072906765034</v>
+        <v>12.43294723661885</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>37.89574159588679</v>
+        <v>29.48205774686406</v>
       </c>
       <c r="H12">
-        <v>16.53078851919293</v>
+        <v>10.1933342797293</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.390928483067766</v>
+        <v>5.478056246747878</v>
       </c>
       <c r="K12">
-        <v>10.01985187825481</v>
+        <v>13.77890112940252</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.41852846358958</v>
+        <v>14.0665107031877</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>26.39814910724809</v>
+        <v>17.65249320009481</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.03960996833011</v>
+        <v>15.98121386424405</v>
       </c>
       <c r="C13">
-        <v>5.231633248887355</v>
+        <v>7.931492795198795</v>
       </c>
       <c r="D13">
-        <v>15.07211751858891</v>
+        <v>12.72641971322029</v>
       </c>
       <c r="E13">
-        <v>16.31945059022981</v>
+        <v>12.41527493348658</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>37.89766630941722</v>
+        <v>29.45487331879531</v>
       </c>
       <c r="H13">
-        <v>16.53309223855893</v>
+        <v>10.1949298108144</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.391760754717431</v>
+        <v>5.478078182693728</v>
       </c>
       <c r="K13">
-        <v>10.00900150737789</v>
+        <v>13.74640592896382</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.4134738211456</v>
+        <v>14.03738369892632</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>26.40144221822106</v>
+        <v>17.64818946813832</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.98867122708968</v>
+        <v>15.84345326404509</v>
       </c>
       <c r="C14">
-        <v>5.207118239609828</v>
+        <v>7.883011579116767</v>
       </c>
       <c r="D14">
-        <v>15.06231350058403</v>
+        <v>12.65131086349935</v>
       </c>
       <c r="E14">
-        <v>16.31535559312983</v>
+        <v>12.35769684479276</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>37.90420286240891</v>
+        <v>29.36707790906187</v>
       </c>
       <c r="H14">
-        <v>16.54066806269232</v>
+        <v>10.20034450214744</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.394498849705611</v>
+        <v>5.478212427314435</v>
       </c>
       <c r="K14">
-        <v>9.973560291117591</v>
+        <v>13.63993987636959</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.39703976369206</v>
+        <v>13.9421331796794</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.41231226015646</v>
+        <v>17.63463074315866</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.95737699459516</v>
+        <v>15.75853681841487</v>
       </c>
       <c r="C15">
-        <v>5.192033623345147</v>
+        <v>7.853180495621809</v>
       </c>
       <c r="D15">
-        <v>15.05636238849084</v>
+        <v>12.60525615494743</v>
       </c>
       <c r="E15">
-        <v>16.31290451706925</v>
+        <v>12.3224717644881</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>37.90840613591789</v>
+        <v>29.31395850995464</v>
       </c>
       <c r="H15">
-        <v>16.54535680125184</v>
+        <v>10.2038222557625</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.396194364204133</v>
+        <v>5.478342597331358</v>
       </c>
       <c r="K15">
-        <v>9.951809450724996</v>
+        <v>13.57434806036158</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.38701228498202</v>
+        <v>13.88359006832478</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>26.41907071710398</v>
+        <v>17.62668937102797</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.77667006076955</v>
+        <v>15.2636968587106</v>
       </c>
       <c r="C16">
-        <v>5.10455534982338</v>
+        <v>7.680177905859731</v>
       </c>
       <c r="D16">
-        <v>15.02309469183456</v>
+        <v>12.34064433766988</v>
       </c>
       <c r="E16">
-        <v>16.29973798452823</v>
+        <v>12.12130656636964</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>37.93554734256109</v>
+        <v>29.01954257316536</v>
       </c>
       <c r="H16">
-        <v>16.57296672062359</v>
+        <v>10.22616882382497</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.406192181207226</v>
+        <v>5.479813416529258</v>
       </c>
       <c r="K16">
-        <v>9.826553049937067</v>
+        <v>13.19266648788506</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.33015499466519</v>
+        <v>13.54509755961518</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>26.45933590729958</v>
+        <v>17.58665031018295</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.66464348828775</v>
+        <v>14.95276169898013</v>
       </c>
       <c r="C17">
-        <v>5.049984113218504</v>
+        <v>7.572233236243517</v>
       </c>
       <c r="D17">
-        <v>15.00343815974329</v>
+        <v>12.17775527233266</v>
       </c>
       <c r="E17">
-        <v>16.29244817609629</v>
+        <v>11.99855724956921</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>37.95491914951468</v>
+        <v>28.84773711383999</v>
       </c>
       <c r="H17">
-        <v>16.59056532852622</v>
+        <v>10.24197860900081</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.41257695082315</v>
+        <v>5.481351889079015</v>
       </c>
       <c r="K17">
-        <v>9.749204399501622</v>
+        <v>12.95333903406231</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.2958271341541</v>
+        <v>13.334821369697</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.48540581563761</v>
+        <v>17.56685374973153</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.599802132017</v>
+        <v>14.77119976286955</v>
       </c>
       <c r="C18">
-        <v>5.018270147517337</v>
+        <v>7.509487991978625</v>
       </c>
       <c r="D18">
-        <v>14.9924111128936</v>
+        <v>12.08388508877546</v>
       </c>
       <c r="E18">
-        <v>16.28854561989221</v>
+        <v>11.92821309198567</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>37.96705995724881</v>
+        <v>28.75211310609568</v>
       </c>
       <c r="H18">
-        <v>16.60093039708184</v>
+        <v>10.25182232262869</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.416341795912276</v>
+        <v>5.482466418837721</v>
       </c>
       <c r="K18">
-        <v>9.704543989159008</v>
+        <v>12.81378158677561</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.27629006238955</v>
+        <v>13.2129382223008</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.50090290690388</v>
+        <v>17.55717336153817</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.57778036033851</v>
+        <v>14.70925761346459</v>
       </c>
       <c r="C19">
-        <v>5.007477034589006</v>
+        <v>7.488131288259341</v>
       </c>
       <c r="D19">
-        <v>14.98872566833512</v>
+        <v>12.05207367122045</v>
       </c>
       <c r="E19">
-        <v>16.28727423702821</v>
+        <v>11.90444163265538</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>37.9713419940185</v>
+        <v>28.72028073367519</v>
       </c>
       <c r="H19">
-        <v>16.60448153172074</v>
+        <v>10.25528208349406</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.417632402664736</v>
+        <v>5.482882833020006</v>
       </c>
       <c r="K19">
-        <v>9.689394748594919</v>
+        <v>12.76620317709716</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.26971118520402</v>
+        <v>13.1715122357633</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.50623618438334</v>
+        <v>17.55418445623467</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.67661152085009</v>
+        <v>14.98614252810075</v>
       </c>
       <c r="C20">
-        <v>5.055827219547464</v>
+        <v>7.583792456859364</v>
       </c>
       <c r="D20">
-        <v>15.00550182364355</v>
+        <v>12.195114367513</v>
       </c>
       <c r="E20">
-        <v>16.29319415980189</v>
+        <v>12.01159778733717</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>37.95275359470667</v>
+        <v>28.86569452820563</v>
       </c>
       <c r="H20">
-        <v>16.58866679549361</v>
+        <v>10.24021748931985</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.411887710477519</v>
+        <v>5.481164256579863</v>
       </c>
       <c r="K20">
-        <v>9.757456392626471</v>
+        <v>12.97901278769028</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.2994600273924</v>
+        <v>13.3573033052347</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.48257862328187</v>
+        <v>17.56878353068615</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.00365262285501</v>
+        <v>15.88402812022937</v>
       </c>
       <c r="C21">
-        <v>5.214333195133309</v>
+        <v>7.897279843713189</v>
       </c>
       <c r="D21">
-        <v>15.06518191188567</v>
+        <v>12.67338234984197</v>
       </c>
       <c r="E21">
-        <v>16.31654647278782</v>
+        <v>12.37460000951262</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>37.90224134706403</v>
+        <v>29.39272824211351</v>
       </c>
       <c r="H21">
-        <v>16.53843278790833</v>
+        <v>10.1987203768524</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.393690780765249</v>
+        <v>5.478162981460259</v>
       </c>
       <c r="K21">
-        <v>9.983979082956433</v>
+        <v>13.67129036028695</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.40185877266012</v>
+        <v>13.97015224060862</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>26.40909857199209</v>
+        <v>17.63853721443233</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.21330044813841</v>
+        <v>16.44690768210208</v>
       </c>
       <c r="C22">
-        <v>5.314879955152458</v>
+        <v>8.096142793401198</v>
       </c>
       <c r="D22">
-        <v>15.10661587564984</v>
+        <v>12.98385678877782</v>
       </c>
       <c r="E22">
-        <v>16.33437262625364</v>
+        <v>12.61381648721439</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>37.87815152253471</v>
+        <v>29.76650447298036</v>
       </c>
       <c r="H22">
-        <v>16.50776489701824</v>
+        <v>10.17875091856895</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.382619691476865</v>
+        <v>5.478335946129296</v>
       </c>
       <c r="K22">
-        <v>10.13018195274255</v>
+        <v>14.10680189230556</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.47053346578414</v>
+        <v>14.36182476219814</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>26.36556024434429</v>
+        <v>17.70028300899344</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.10180356234872</v>
+        <v>16.14866450010542</v>
       </c>
       <c r="C23">
-        <v>5.261501447989598</v>
+        <v>7.990563165021777</v>
       </c>
       <c r="D23">
-        <v>15.08428218930584</v>
+        <v>12.81836456449828</v>
       </c>
       <c r="E23">
-        <v>16.32462496846977</v>
+        <v>12.48597622015704</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>37.89019099573466</v>
+        <v>29.56428919995469</v>
       </c>
       <c r="H23">
-        <v>16.52393498514058</v>
+        <v>10.18873125395042</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.388453455523511</v>
+        <v>5.478043876873442</v>
       </c>
       <c r="K23">
-        <v>10.05233410823497</v>
+        <v>13.87590850779125</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.43372497155046</v>
+        <v>14.15361393830523</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>26.38838653697459</v>
+        <v>17.6658029955175</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.67120212531216</v>
+        <v>14.97105978333181</v>
       </c>
       <c r="C24">
-        <v>5.053186609307959</v>
+        <v>7.578568669364223</v>
       </c>
       <c r="D24">
-        <v>15.00456798790021</v>
+        <v>12.18726700968895</v>
       </c>
       <c r="E24">
-        <v>16.29285600184713</v>
+        <v>12.00570145235251</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>37.95372951590655</v>
+        <v>28.85756618220858</v>
       </c>
       <c r="H24">
-        <v>16.58952435165146</v>
+        <v>10.24101134668269</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.412199022726542</v>
+        <v>5.481248369683243</v>
       </c>
       <c r="K24">
-        <v>9.753726259873318</v>
+        <v>12.96741180384501</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.29781697708423</v>
+        <v>13.34714230773717</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.48385521107129</v>
+        <v>17.56790578945377</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.19151956505997</v>
+        <v>13.59668348569003</v>
       </c>
       <c r="C25">
-        <v>4.816127214969923</v>
+        <v>7.109145918289676</v>
       </c>
       <c r="D25">
-        <v>14.92927100499099</v>
+        <v>11.50001724228732</v>
       </c>
       <c r="E25">
-        <v>16.26969755680049</v>
+        <v>11.49774413735233</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.06042032149776</v>
+        <v>28.21667895712425</v>
       </c>
       <c r="H25">
-        <v>16.66955605856261</v>
+        <v>10.32584350930868</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.441349909839463</v>
+        <v>5.493436447433243</v>
       </c>
       <c r="K25">
-        <v>9.425282384814674</v>
+        <v>11.9147800522667</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.1591992800226</v>
+        <v>12.44183882334316</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.6060324741689</v>
+        <v>17.52696030280901</v>
       </c>
     </row>
   </sheetData>
